--- a/k02/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
+++ b/k02/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Documents\資格対策\z13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\資格対策\k02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="7428"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
   </bookViews>
   <sheets>
-    <sheet name="8月26日" sheetId="8" r:id="rId1"/>
-    <sheet name="7月22日" sheetId="2" r:id="rId2"/>
-    <sheet name="7月8日" sheetId="3" r:id="rId3"/>
-    <sheet name="7月1日" sheetId="4" r:id="rId4"/>
-    <sheet name="6月24日" sheetId="5" r:id="rId5"/>
-    <sheet name="6月17日" sheetId="6" r:id="rId6"/>
-    <sheet name="6月3日" sheetId="7" r:id="rId7"/>
-    <sheet name="テンプレート" sheetId="9" r:id="rId8"/>
+    <sheet name="10月21日" sheetId="10" r:id="rId1"/>
+    <sheet name="8月26日" sheetId="8" r:id="rId2"/>
+    <sheet name="7月22日" sheetId="2" r:id="rId3"/>
+    <sheet name="7月8日" sheetId="3" r:id="rId4"/>
+    <sheet name="7月1日" sheetId="4" r:id="rId5"/>
+    <sheet name="6月24日" sheetId="5" r:id="rId6"/>
+    <sheet name="6月17日" sheetId="6" r:id="rId7"/>
+    <sheet name="6月3日" sheetId="7" r:id="rId8"/>
+    <sheet name="テンプレート" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
   <si>
     <t>資格対策Ⅲ　学習記録ワークシート</t>
     <rPh sb="0" eb="2">
@@ -1723,6 +1724,222 @@
   </si>
   <si>
     <t>コンピュテーショナルフォトグラフィ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_25a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点とそれらを結ぶ線だけを用いて立体の形状を表現したものを何と呼ぶか、この表現では面情報が無く、面どうしの干渉計算などの処理ができない</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リッタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>メンジョウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンショウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膨大な数のポリゴンからなる曲面に簡単化処理を行い、ポリゴン数を削減する事で処理を効率化する手法がある</t>
+    <rPh sb="0" eb="2">
+      <t>ボウダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョクメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細度制御</t>
+    <rPh sb="0" eb="5">
+      <t>ショウサイドセイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイヤーフレームモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_26a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3次元ディジタイザなどの計測器で実際の物体の形状を計測し、細かい曲面のデータを得るときに計測条件や誤差などに起因するノイズが含まれることがある、ノイズを除去する方法を何と呼ぶか</t>
+    <rPh sb="1" eb="3">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケイソクキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョクメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>ケイソクジョウケン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キイン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平滑化</t>
+    <rPh sb="0" eb="1">
+      <t>ヘイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1812,7 +2029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,6 +2057,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1859,6 +2079,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>632461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3002280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1871997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6149340" y="2461261"/>
+          <a:ext cx="2918460" cy="1239536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2039,7 +2308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2132,7 +2401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2225,7 +2494,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2406,7 +2675,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2499,7 +2768,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2548,7 +2817,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2862,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2909,6 +3178,705 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>45586</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="152.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45586</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>45586</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
+    <col min="7" max="7" width="26.3984375" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
@@ -3583,7 +4551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -4305,7 +5273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -5002,7 +5970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -5740,7 +6708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -6452,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -7137,7 +8105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -7847,7 +8815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>

--- a/k02/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
+++ b/k02/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
   <si>
     <t>資格対策Ⅲ　学習記録ワークシート</t>
     <rPh sb="0" eb="2">
@@ -1939,6 +1939,114 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形状表現手法の一つで、物体の形状を図のように濃度をもつ球の集まりとして表現する手法を何と呼ぶか</t>
+    <rPh sb="0" eb="4">
+      <t>ケイジョウヒョウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ノウド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メタボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標とは別の変数(媒介変数)tを用いて、x=f(t), y=g(t)のかたちで曲線形状を表現する形式を何と呼ぶか</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バイカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメーター形式</t>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年前期過去問題
+https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_27a.pdf</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カコモンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2116,6 +2224,50 @@
         <a:xfrm>
           <a:off x="6149340" y="2461261"/>
           <a:ext cx="2918460" cy="1239536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>883628</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2430957</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1996612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6949148" y="5173980"/>
+          <a:ext cx="1547329" cy="1501312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3250,37 +3402,67 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="166.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="9">
+        <v>45586</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="9">
+        <v>45586</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="9">
+        <v>45586</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3820,9 +4002,13 @@
     <hyperlink ref="D4" r:id="rId1" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
     <hyperlink ref="D5" r:id="rId2" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
     <hyperlink ref="D6" r:id="rId3" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://www.cgarts.or.jp/v1/kentei/past/img/2024_07/t/b/bas_cg_24a.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/k02/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
+++ b/k02/資格対策Ⅲ_学習記録_K02_03_安達蒼馬.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="123">
   <si>
     <t>資格対策Ⅲ　学習記録ワークシート</t>
     <rPh sb="0" eb="2">
@@ -2047,6 +2047,85 @@
     </rPh>
     <rPh sb="7" eb="11">
       <t>カコモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水色の線が描かれているベジェ曲線において、曲線の形状を決める点Pのことを何と呼ぶか</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変曲点</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンキョクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御点</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変曲点：曲線の上と下との凹凸の変わり目の点</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンキョクテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウトツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2268,6 +2347,50 @@
         <a:xfrm>
           <a:off x="6949148" y="5173980"/>
           <a:ext cx="1547329" cy="1501312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>487649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2961027</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1310837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6278880" y="7962869"/>
+          <a:ext cx="2747667" cy="823188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3283,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3450,7 +3573,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -3463,10 +3586,18 @@
       <c r="D9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
